--- a/Lab. Mec Flu I/Relatório_4/dados_exp.xlsx
+++ b/Lab. Mec Flu I/Relatório_4/dados_exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNESP\7-semestre-EngMec\Lab. Mec Flu I\Relatório_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNESP\EngMec-UNESP\Lab. Mec Flu I\Relatório_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF5FD81-27B3-4AC6-8A02-1E53ED40269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B58968-870B-4FA1-A577-8148BA8EAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-156" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>col1</t>
+    <t>delta_h</t>
   </si>
   <si>
-    <t>col2</t>
+    <t>h1</t>
   </si>
   <si>
-    <t>vel</t>
+    <t>h2</t>
   </si>
   <si>
-    <t>d_col</t>
+    <t>v_exp</t>
   </si>
 </sst>
 </file>
@@ -98,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,29 +443,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -481,7 +482,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -498,7 +499,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,7 +516,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,7 +533,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -549,6 +550,9 @@
         <v>21.7</v>
       </c>
       <c r="G6" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
